--- a/includes/excels/archs.txt.xlsx
+++ b/includes/excels/archs.txt.xlsx
@@ -928,7 +928,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="71">
+  <fonts count="72">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -951,9 +951,90 @@
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff969697"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff0f0701"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff0f0701"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff1f0001"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFff232324"/>
+      <color rgb="FFffffffffff800100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffd174a9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffff0566"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff0a0a0b"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff0a0a24"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffd0b0b1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -962,7 +1043,25 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffff75"/>
+      <color rgb="FFffffffffffd0b0b1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffe6e690"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff0f0010"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -971,7 +1070,16 @@
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFff0f0701"/>
+      <color rgb="FFffffffffff000020"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff887767"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -980,7 +1088,25 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff0f0001"/>
+      <color rgb="FFffffffffff001b3c"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffff4001"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff849712"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -989,7 +1115,88 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff005b00"/>
+      <color rgb="FFffffffffff050f1a"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff002900"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff7f7f80"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff0f0001"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff80002c"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffffff01"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff783115"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff117d12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff00493f"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff2d96e2"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -998,7 +1205,34 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff000001"/>
+      <color rgb="FFffffffffff45aa2d"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff1f0001"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff00102b"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff8f7f70"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1007,7 +1241,16 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff050f1a"/>
+      <color rgb="FFffffffffff3f3f40"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff007400"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1016,7 +1259,61 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff001b3c"/>
+      <color rgb="FFffffffffff000001"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff565657"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffd174a9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffb4ff7e"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff5200d1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffff0081"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff000020"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1025,7 +1322,43 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffcd32ce"/>
+      <color rgb="FFffffffffff704371"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff99cc67"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff7f7f80"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff23ebc4"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffffff01"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1034,7 +1367,52 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff830400"/>
+      <color rgb="FFffffffffffffff01"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff001b3c"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff969697"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff4dddde"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff783106"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff8f7f70"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1043,7 +1421,97 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff191906"/>
+      <color rgb="FFffffffffffff312f"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff74baed"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffd0b0b1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff001b1f"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffc34c8f"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff783106"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff75d41e"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff111756"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff6c8f25"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff191906"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff969697"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1052,7 +1520,16 @@
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFff7f7f80"/>
+      <color rgb="FFffffffffff255ae0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff5fadd3"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1061,34 +1538,25 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff783106"/>
+      <color rgb="FFffffffffff225f23"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff2c2c2d"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff002900"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
       <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff80002c"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff0a0a24"/>
+      <color rgb="FFffffffffff005b00"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1097,61 +1565,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffff0081"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffff312f"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff232324"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff000020"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff2d96e2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff3f3f40"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff007400"/>
+      <color rgb="FFffffffffff9471dd"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1160,416 +1574,11 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFff274028"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff8f7f70"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffdf4d56"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff969697"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffff7475"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff424895"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff565657"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff005b00"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff001433"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff232324"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff7f7f80"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff00ff01"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff1f0001"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff4dddde"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff005b00"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff214779"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff424895"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff00ff01"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff000020"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff783115"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff0f0701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff327ac1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffbe961f"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff0a214d"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff501112"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff258f2a"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff2c2c2d"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffdf4d56"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff191906"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff8f7f70"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff4f1f1a"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff000020"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff0f0010"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff0f0701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff05052e"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffc34c8f"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff000a12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff000506"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff248f6d"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff232324"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff000533"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff002547"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffff9c00"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff969697"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFff887767"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff95a533"/>
+      <color rgb="FFffffffffffd174a9"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1587,14 +1596,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC&#13;&#10;"/>
-        <bgColor rgb="FFDCDCDC&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00008B&#13;&#10;"/>
-        <bgColor rgb="FF00008B&#13;&#10;"/>
+        <fgColor rgb="FF696969&#13;&#10;"/>
+        <bgColor rgb="FF696969&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1605,20 +1608,86 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF&#13;&#10;"/>
-        <bgColor rgb="FFF0FFFF&#13;&#10;"/>
+        <fgColor rgb="FFE0FFFF&#13;&#10;"/>
+        <bgColor rgb="FFE0FFFF&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500&#13;&#10;"/>
-        <bgColor rgb="FFFFA500&#13;&#10;"/>
+        <fgColor rgb="FF7FFF00&#13;&#10;"/>
+        <bgColor rgb="FF7FFF00&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF&#13;&#10;"/>
-        <bgColor rgb="FFFFFFFF&#13;&#10;"/>
+        <fgColor rgb="FF2E8B57&#13;&#10;"/>
+        <bgColor rgb="FF2E8B57&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FA9A&#13;&#10;"/>
+        <bgColor rgb="FF00FA9A&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5&#13;&#10;"/>
+        <bgColor rgb="FFF5F5F5&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5DC&#13;&#10;"/>
+        <bgColor rgb="FFF5F5DC&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F4F4F&#13;&#10;"/>
+        <bgColor rgb="FF2F4F4F&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF191970&#13;&#10;"/>
+        <bgColor rgb="FF191970&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFF0&#13;&#10;"/>
+        <bgColor rgb="FFF0FFF0&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE0&#13;&#10;"/>
+        <bgColor rgb="FFFFFFE0&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF778899&#13;&#10;"/>
+        <bgColor rgb="FF778899&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4C4&#13;&#10;"/>
+        <bgColor rgb="FFFFE4C4&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BFFF&#13;&#10;"/>
+        <bgColor rgb="FF00BFFF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7B68EE&#13;&#10;"/>
+        <bgColor rgb="FF7B68EE&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1629,26 +1698,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4C4&#13;&#10;"/>
-        <bgColor rgb="FFFFE4C4&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32&#13;&#10;"/>
-        <bgColor rgb="FF32CD32&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CFC00&#13;&#10;"/>
-        <bgColor rgb="FF7CFC00&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6FA&#13;&#10;"/>
-        <bgColor rgb="FFE6E6FA&#13;&#10;"/>
+        <fgColor rgb="FFFFD700&#13;&#10;"/>
+        <bgColor rgb="FFFFD700&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1659,14 +1710,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF87CEFA&#13;&#10;"/>
-        <bgColor rgb="FF87CEFA&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD700&#13;&#10;"/>
-        <bgColor rgb="FFFFD700&#13;&#10;"/>
+        <fgColor rgb="FFF0FFFF&#13;&#10;"/>
+        <bgColor rgb="FFF0FFFF&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1677,32 +1722,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5DC&#13;&#10;"/>
-        <bgColor rgb="FFF5F5DC&#13;&#10;"/>
+        <fgColor rgb="FF0000FF&#13;&#10;"/>
+        <bgColor rgb="FF0000FF&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF7F&#13;&#10;"/>
-        <bgColor rgb="FF00FF7F&#13;&#10;"/>
+        <fgColor rgb="FF87CEEB&#13;&#10;"/>
+        <bgColor rgb="FF87CEEB&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CED1&#13;&#10;"/>
-        <bgColor rgb="FF00CED1&#13;&#10;"/>
+        <fgColor rgb="FFEE82EE&#13;&#10;"/>
+        <bgColor rgb="FFEE82EE&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFE0&#13;&#10;"/>
-        <bgColor rgb="FFFFFFE0&#13;&#10;"/>
+        <fgColor rgb="FFFFB6C1&#13;&#10;"/>
+        <bgColor rgb="FFFFB6C1&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD2691E&#13;&#10;"/>
         <bgColor rgb="FFD2691E&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBA55D3&#13;&#10;"/>
+        <bgColor rgb="FFBA55D3&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEFD5&#13;&#10;"/>
+        <bgColor rgb="FFFFEFD5&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF708090&#13;&#10;"/>
+        <bgColor rgb="FF708090&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1719,38 +1782,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8BFD8&#13;&#10;"/>
-        <bgColor rgb="FFD8BFD8&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF708090&#13;&#10;"/>
-        <bgColor rgb="FF708090&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20B2AA&#13;&#10;"/>
-        <bgColor rgb="FF20B2AA&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF696969&#13;&#10;"/>
-        <bgColor rgb="FF696969&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008B8B&#13;&#10;"/>
-        <bgColor rgb="FF008B8B&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDB76B&#13;&#10;"/>
-        <bgColor rgb="FFBDB76B&#13;&#10;"/>
+        <fgColor rgb="FFFFFFFF&#13;&#10;"/>
+        <bgColor rgb="FFFFFFFF&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1761,20 +1794,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEBCD&#13;&#10;"/>
-        <bgColor rgb="FFFFEBCD&#13;&#10;"/>
+        <fgColor rgb="FF4B0082&#13;&#10;"/>
+        <bgColor rgb="FF4B0082&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF&#13;&#10;"/>
-        <bgColor rgb="FFFF00FF&#13;&#10;"/>
+        <fgColor rgb="FFADFF2F&#13;&#10;"/>
+        <bgColor rgb="FFADFF2F&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0FFFF&#13;&#10;"/>
-        <bgColor rgb="FFE0FFFF&#13;&#10;"/>
+        <fgColor rgb="FF00FF7F&#13;&#10;"/>
+        <bgColor rgb="FF00FF7F&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FBC8F&#13;&#10;"/>
+        <bgColor rgb="FF8FBC8F&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF663399&#13;&#10;"/>
+        <bgColor rgb="FF663399&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC143C&#13;&#10;"/>
+        <bgColor rgb="FFDC143C&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1785,44 +1836,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887&#13;&#10;"/>
-        <bgColor rgb="FFDEB887&#13;&#10;"/>
+        <fgColor rgb="FF87CEFA&#13;&#10;"/>
+        <bgColor rgb="FF87CEFA&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB&#13;&#10;"/>
-        <bgColor rgb="FF87CEEB&#13;&#10;"/>
+        <fgColor rgb="FF00CED1&#13;&#10;"/>
+        <bgColor rgb="FF00CED1&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCD853F&#13;&#10;"/>
-        <bgColor rgb="FFCD853F&#13;&#10;"/>
+        <fgColor rgb="FF8B4513&#13;&#10;"/>
+        <bgColor rgb="FF8B4513&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4169E1&#13;&#10;"/>
-        <bgColor rgb="FF4169E1&#13;&#10;"/>
+        <fgColor rgb="FFFFE4E1&#13;&#10;"/>
+        <bgColor rgb="FFFFE4E1&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5DEB3&#13;&#10;"/>
-        <bgColor rgb="FFF5DEB3&#13;&#10;"/>
+        <fgColor rgb="FF3CB371&#13;&#10;"/>
+        <bgColor rgb="FF3CB371&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFEEEE&#13;&#10;"/>
-        <bgColor rgb="FFAFEEEE&#13;&#10;"/>
+        <fgColor rgb="FF8A2BE2&#13;&#10;"/>
+        <bgColor rgb="FF8A2BE2&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDA70D6&#13;&#10;"/>
-        <bgColor rgb="FFDA70D6&#13;&#10;"/>
+        <fgColor rgb="FFEEE8AA&#13;&#10;"/>
+        <bgColor rgb="FFEEE8AA&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9370DB&#13;&#10;"/>
+        <bgColor rgb="FF9370DB&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FA&#13;&#10;"/>
+        <bgColor rgb="FFE6E6FA&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAA520&#13;&#10;"/>
+        <bgColor rgb="FFDAA520&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0522D&#13;&#10;"/>
+        <bgColor rgb="FFA0522D&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA0DD&#13;&#10;"/>
+        <bgColor rgb="FFDDA0DD&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1833,74 +1914,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB0E0E6&#13;&#10;"/>
-        <bgColor rgb="FFB0E0E6&#13;&#10;"/>
+        <fgColor rgb="FFFFA500&#13;&#10;"/>
+        <bgColor rgb="FFFFA500&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFF0&#13;&#10;"/>
-        <bgColor rgb="FFF0FFF0&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAD2&#13;&#10;"/>
-        <bgColor rgb="FFFAFAD2&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3CB371&#13;&#10;"/>
-        <bgColor rgb="FF3CB371&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5EE&#13;&#10;"/>
-        <bgColor rgb="FFFFF5EE&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFAFA&#13;&#10;"/>
-        <bgColor rgb="FFFFFAFA&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDB7093&#13;&#10;"/>
-        <bgColor rgb="FFDB7093&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFACD&#13;&#10;"/>
-        <bgColor rgb="FFFFFACD&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFDAB9&#13;&#10;"/>
-        <bgColor rgb="FFFFDAB9&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006400&#13;&#10;"/>
-        <bgColor rgb="FF006400&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF778899&#13;&#10;"/>
-        <bgColor rgb="FF778899&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6A5ACD&#13;&#10;"/>
-        <bgColor rgb="FF6A5ACD&#13;&#10;"/>
+        <fgColor rgb="FF6B8E23&#13;&#10;"/>
+        <bgColor rgb="FF6B8E23&#13;&#10;"/>
       </patternFill>
     </fill>
   </fills>
@@ -1908,975 +1929,936 @@
     <border/>
     <border>
       <left style="double">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
+        <color rgb="FF00FF7F&#13;&#10;"/>
       </left>
       <right style="double">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
+        <color rgb="FF00FF7F&#13;&#10;"/>
       </right>
       <top style="double">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
+        <color rgb="FF00FF7F&#13;&#10;"/>
       </top>
       <bottom style="double">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
+        <color rgb="FF00FF7F&#13;&#10;"/>
       </bottom>
     </border>
     <border>
-      <left style="slantDashDot">
-        <color rgb="FFD8BFD8&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFD8BFD8&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFD8BFD8&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFD8BFD8&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
+      <left style="medium">
         <color rgb="FFA52A2A&#13;&#10;"/>
       </left>
-      <right style="mediumDashed">
+      <right style="medium">
         <color rgb="FFA52A2A&#13;&#10;"/>
       </right>
-      <top style="mediumDashed">
+      <top style="medium">
         <color rgb="FFA52A2A&#13;&#10;"/>
       </top>
-      <bottom style="mediumDashed">
+      <bottom style="medium">
         <color rgb="FFA52A2A&#13;&#10;"/>
       </bottom>
     </border>
+    <border/>
     <border>
-      <left style="thick">
-        <color rgb="FFFAFAD2&#13;&#10;"/>
+      <left style="slantDashDot">
+        <color rgb="FFFFC0CB&#13;&#10;"/>
       </left>
-      <right style="thick">
-        <color rgb="FFFAFAD2&#13;&#10;"/>
+      <right style="slantDashDot">
+        <color rgb="FFFFC0CB&#13;&#10;"/>
       </right>
-      <top style="thick">
-        <color rgb="FFFAFAD2&#13;&#10;"/>
+      <top style="slantDashDot">
+        <color rgb="FFFFC0CB&#13;&#10;"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFFAFAD2&#13;&#10;"/>
+      <bottom style="slantDashDot">
+        <color rgb="FFFFC0CB&#13;&#10;"/>
       </bottom>
     </border>
     <border/>
     <border>
       <left style="thick">
+        <color rgb="FF708090&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF708090&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF708090&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF708090&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF778899&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF778899&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF778899&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF778899&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF8B0000&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF8B0000&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF8B0000&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF8B0000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF5DEB3&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF5DEB3&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF5DEB3&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF5DEB3&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFFFAFA&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFFFFAFA&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFFFFAFA&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFFFFAFA&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFFFF00&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFFFF00&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFFFF00&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFFFF00&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="dashDot">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF808000&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF808000&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF808000&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF808000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFA500&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFA500&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFA500&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFA500&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF6A5ACD&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF6A5ACD&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF6A5ACD&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF6A5ACD&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FF483D8B&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FF483D8B&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FF483D8B&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FF483D8B&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFE9967A&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFE9967A&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFE9967A&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFE9967A&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF8A2BE2&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF8A2BE2&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF8A2BE2&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF8A2BE2&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
         <color rgb="FF00BFFF&#13;&#10;"/>
       </left>
-      <right style="thick">
+      <right style="dashDot">
         <color rgb="FF00BFFF&#13;&#10;"/>
       </right>
-      <top style="thick">
+      <top style="dashDot">
         <color rgb="FF00BFFF&#13;&#10;"/>
       </top>
-      <bottom style="thick">
+      <bottom style="dashDot">
         <color rgb="FF00BFFF&#13;&#10;"/>
       </bottom>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF8B0000&#13;&#10;"/>
+      <left style="hair">
+        <color rgb="FF9ACD32"/>
       </left>
-      <right style="double">
-        <color rgb="FF8B0000&#13;&#10;"/>
+      <right style="hair">
+        <color rgb="FF9ACD32"/>
       </right>
-      <top style="double">
-        <color rgb="FF8B0000&#13;&#10;"/>
+      <top style="hair">
+        <color rgb="FF9ACD32"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF8B0000&#13;&#10;"/>
+      <bottom style="hair">
+        <color rgb="FF9ACD32"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF0000FF&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF0000FF&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF0000FF&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF0000FF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF191970&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF191970&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF191970&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF191970&#13;&#10;"/>
       </bottom>
     </border>
     <border/>
     <border>
       <left style="mediumDashed">
+        <color rgb="FF708090&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF708090&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF708090&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF708090&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF87CEFA&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF87CEFA&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF87CEFA&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF87CEFA&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF4500&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF4500&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF4500&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF4500&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFE4B5&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE4B5&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFE4B5&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFE4B5&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="hair">
+        <color rgb="FF7FFF00&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF7FFF00&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF7FFF00&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF7FFF00&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF9932CC&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF9932CC&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF9932CC&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF9932CC&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8B008B&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8B008B&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8B008B&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8B008B&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFD8BFD8&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FFD8BFD8&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FFD8BFD8&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FFD8BFD8&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000FF&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0000FF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF66CDAA&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF66CDAA&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF66CDAA&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF66CDAA&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFD2B48C&#13;&#10;"/>
       </left>
-      <right style="mediumDashed">
+      <right style="medium">
         <color rgb="FFD2B48C&#13;&#10;"/>
       </right>
-      <top style="mediumDashed">
+      <top style="medium">
         <color rgb="FFD2B48C&#13;&#10;"/>
       </top>
-      <bottom style="mediumDashed">
+      <bottom style="medium">
         <color rgb="FFD2B48C&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF228B22&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF228B22&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF228B22&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF228B22&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFF4A460&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FFF4A460&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FFF4A460&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FFF4A460&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF7B68EE&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF7B68EE&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF7B68EE&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF7B68EE&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFF4A460&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFF4A460&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFF4A460&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFF4A460&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFDCDCDC&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFDCDCDC&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFDCDCDC&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFDCDCDC&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF696969&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF696969&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF696969&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF696969&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF008B8B&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF008B8B&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF008B8B&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008B8B&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FFFFDAB9&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFFFDAB9&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFFFDAB9&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFFFDAB9&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFBC8F8F&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFBC8F8F&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFBC8F8F&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFBC8F8F&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFDF5E6&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFDF5E6&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFDF5E6&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFDF5E6&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF4682B4&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF4682B4&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF4682B4&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4682B4&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF4169E1&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF4169E1&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF4169E1&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF4169E1&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FFB0E0E6&#13;&#10;"/>
       </left>
-      <right style="medium">
+      <right style="double">
         <color rgb="FFB0E0E6&#13;&#10;"/>
       </right>
-      <top style="medium">
+      <top style="double">
         <color rgb="FFB0E0E6&#13;&#10;"/>
       </top>
-      <bottom style="medium">
+      <bottom style="double">
         <color rgb="FFB0E0E6&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="slantDashDot">
-        <color rgb="FFD2691E&#13;&#10;"/>
+        <color rgb="FF2F4F4F&#13;&#10;"/>
       </left>
       <right style="slantDashDot">
-        <color rgb="FFD2691E&#13;&#10;"/>
+        <color rgb="FF2F4F4F&#13;&#10;"/>
       </right>
       <top style="slantDashDot">
-        <color rgb="FFD2691E&#13;&#10;"/>
+        <color rgb="FF2F4F4F&#13;&#10;"/>
       </top>
       <bottom style="slantDashDot">
-        <color rgb="FFD2691E&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF228B22&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF228B22&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF228B22&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF228B22&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF008B8B&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF008B8B&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF008B8B&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF008B8B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF98FB98&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF98FB98&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF98FB98&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF98FB98&#13;&#10;"/>
+        <color rgb="FF2F4F4F&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFFFFFF&#13;&#10;"/>
+        <color rgb="FFF5F5F5&#13;&#10;"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF&#13;&#10;"/>
+        <color rgb="FFF5F5F5&#13;&#10;"/>
       </right>
       <top style="medium">
-        <color rgb="FFFFFFFF&#13;&#10;"/>
+        <color rgb="FFF5F5F5&#13;&#10;"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFFFFFFF&#13;&#10;"/>
+        <color rgb="FFF5F5F5&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF808080&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFD3D3D3&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFD3D3D3&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFD3D3D3&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFD3D3D3&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF000080&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF000080&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF000080&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF000080&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6A5ACD&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF6A5ACD&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6A5ACD&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6A5ACD&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF66CDAA&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF66CDAA&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF66CDAA&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF66CDAA&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="slantDashDot">
-        <color rgb="FF6B8E23&#13;&#10;"/>
+        <color rgb="FF32CD32&#13;&#10;"/>
       </left>
       <right style="slantDashDot">
-        <color rgb="FF6B8E23&#13;&#10;"/>
+        <color rgb="FF32CD32&#13;&#10;"/>
       </right>
       <top style="slantDashDot">
-        <color rgb="FF6B8E23&#13;&#10;"/>
+        <color rgb="FF32CD32&#13;&#10;"/>
       </top>
       <bottom style="slantDashDot">
-        <color rgb="FF6B8E23&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FF808080&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FF808080&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FF808080&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FF808080&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5F9EA0&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5F9EA0&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF5F9EA0&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5F9EA0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFFDF5E6&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFFDF5E6&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFFDF5E6&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFFDF5E6&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF808000&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FF808000&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FF808000&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF808000&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF7B68EE&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FF7B68EE&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FF7B68EE&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF7B68EE&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF20B2AA&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF20B2AA&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF20B2AA&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF20B2AA&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFF5FFFA&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFF5FFFA&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFF5FFFA&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFF5FFFA&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFFFE4B5&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFFFE4B5&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFFFE4B5&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFFFE4B5&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FF6B8E23&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FF6B8E23&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FF6B8E23&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF6B8E23&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFBC8F8F&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFBC8F8F&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFBC8F8F&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFBC8F8F&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFFF69B4&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFFF69B4&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFFF69B4&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFFF69B4&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCD853F&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCD853F&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCD853F&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCD853F&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF20B2AA&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF20B2AA&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF20B2AA&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF20B2AA&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FFFFE4E1&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FFFFE4E1&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FFFFE4E1&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FFFFE4E1&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFA9A9A9&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFA9A9A9&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFA9A9A9&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFA9A9A9&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border>
-      <left style="thick">
-        <color rgb="FF7CFC00&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF7CFC00&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF7CFC00&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF7CFC00&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFFFEBCD&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFFFEBCD&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFFFEBCD&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFFFEBCD&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFDC143C&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFDC143C&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFDC143C&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFDC143C&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFFF69B4&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFFF69B4&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFFF69B4&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFFF69B4&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFC0C0C0&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFC0C0C0&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFC0C0C0&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFC0C0C0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF708090&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FF708090&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FF708090&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF708090&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFC0CB&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFC0CB&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFC0CB&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFC0CB&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF000080&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF000080&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF000080&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF000080&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF98FB98&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF98FB98&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF98FB98&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF98FB98&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF8B4513&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF8B4513&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF8B4513&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF8B4513&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF32CD32&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF32CD32&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF32CD32&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
         <color rgb="FF32CD32&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFA8072&#13;&#10;"/>
+        <color rgb="FF2F4F4F&#13;&#10;"/>
       </left>
       <right style="medium">
-        <color rgb="FFFA8072&#13;&#10;"/>
+        <color rgb="FF2F4F4F&#13;&#10;"/>
       </right>
       <top style="medium">
-        <color rgb="FFFA8072&#13;&#10;"/>
+        <color rgb="FF2F4F4F&#13;&#10;"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFFA8072&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF696969&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF696969&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF696969&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF696969&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFFF00FF&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFFF00FF&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFFF00FF&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFFF00FF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFFAEBD7&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFFAEBD7&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFFAEBD7&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFFAEBD7&#13;&#10;"/>
+        <color rgb="FF2F4F4F&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="dashDot">
-        <color rgb="FFFF00FF&#13;&#10;"/>
+        <color rgb="FFF0FFF0&#13;&#10;"/>
       </left>
       <right style="dashDot">
-        <color rgb="FFFF00FF&#13;&#10;"/>
+        <color rgb="FFF0FFF0&#13;&#10;"/>
       </right>
       <top style="dashDot">
-        <color rgb="FFFF00FF&#13;&#10;"/>
+        <color rgb="FFF0FFF0&#13;&#10;"/>
       </top>
       <bottom style="dashDot">
-        <color rgb="FFFF00FF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF9ACD32"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF9ACD32"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF9ACD32"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF9ACD32"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFADD8E6&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFADD8E6&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFADD8E6&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFADD8E6&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9370DB&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9370DB&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9370DB&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9370DB&#13;&#10;"/>
+        <color rgb="FFF0FFF0&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="dashDot">
-        <color rgb="FF2E8B57&#13;&#10;"/>
+        <color rgb="FFFFF0F5&#13;&#10;"/>
       </left>
       <right style="dashDot">
-        <color rgb="FF2E8B57&#13;&#10;"/>
+        <color rgb="FFFFF0F5&#13;&#10;"/>
       </right>
       <top style="dashDot">
-        <color rgb="FF2E8B57&#13;&#10;"/>
+        <color rgb="FFFFF0F5&#13;&#10;"/>
       </top>
       <bottom style="dashDot">
-        <color rgb="FF2E8B57&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF778899&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF778899&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF778899&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF778899&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF556B2F&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF556B2F&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF556B2F&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF556B2F&#13;&#10;"/>
+        <color rgb="FFFFF0F5&#13;&#10;"/>
       </bottom>
     </border>
     <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FFADFF2F&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFADFF2F&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFADFF2F&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFADFF2F&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF808080&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF808080&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF808080&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF808080&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF7F50&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF7F50&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF7F50&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF7F50&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFDAB9&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFDAB9&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFDAB9&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFDAB9&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB0C4DE&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB0C4DE&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFB0C4DE&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB0C4DE&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFFFB6C1&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFFFB6C1&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFFFB6C1&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFFFB6C1&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF008B8B&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF008B8B&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF008B8B&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF008B8B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FFF5DEB3&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FFF5DEB3&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FFF5DEB3&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FFF5DEB3&#13;&#10;"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2894,226 +2876,226 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="8" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="9" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="7" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="10" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="8" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="11" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="9" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="12" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="10" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="13" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="11" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="14" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="11" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="15" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="12" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="16" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="13" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="17" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="14" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="18" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="15" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="19" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="16" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="20" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="17" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="16" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="18" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="3" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="19" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="21" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="21" numFmtId="0" fillId="20" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="22" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="21" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="23" numFmtId="0" fillId="23" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="19" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="24" numFmtId="0" fillId="24" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="23" numFmtId="0" fillId="22" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="0" fillId="25" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="0" fillId="23" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="26" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="25" numFmtId="0" fillId="24" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="27" numFmtId="0" fillId="27" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="25" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="28" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="27" numFmtId="0" fillId="26" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="29" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="27" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="30" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="28" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="31" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="29" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="7" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="5" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="32" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="32" numFmtId="0" fillId="30" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="31" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="14" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="32" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="33" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="33" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="34" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="34" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="35" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="0" fillId="35" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="7" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="7" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="36" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="36" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="41" numFmtId="0" fillId="30" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="37" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="33" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="41" numFmtId="0" fillId="38" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="43" numFmtId="0" fillId="21" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="14" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="37" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="43" numFmtId="0" fillId="39" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="5" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="40" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="46" numFmtId="0" fillId="38" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="19" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="47" numFmtId="0" fillId="39" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="21" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="48" numFmtId="0" fillId="40" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="49" numFmtId="0" fillId="41" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="46" numFmtId="0" fillId="41" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="50" numFmtId="0" fillId="42" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="47" numFmtId="0" fillId="24" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="51" numFmtId="0" fillId="43" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="48" numFmtId="0" fillId="24" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="52" numFmtId="0" fillId="27" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="49" numFmtId="0" fillId="16" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="50" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="53" numFmtId="0" fillId="13" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="51" numFmtId="0" fillId="42" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="54" numFmtId="0" fillId="26" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="52" numFmtId="0" fillId="43" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="55" numFmtId="0" fillId="44" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="32" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="56" numFmtId="0" fillId="21" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="13" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="57" numFmtId="0" fillId="45" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="53" numFmtId="0" fillId="31" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="7" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="54" numFmtId="0" fillId="44" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="58" numFmtId="0" fillId="5" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="55" numFmtId="0" fillId="45" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="27" numFmtId="0" fillId="27" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="56" numFmtId="0" fillId="11" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="5" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="57" numFmtId="0" fillId="46" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="59" numFmtId="0" fillId="46" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="58" numFmtId="0" fillId="47" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="60" numFmtId="0" fillId="47" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="59" numFmtId="0" fillId="43" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="61" numFmtId="0" fillId="48" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="60" numFmtId="0" fillId="48" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="62" numFmtId="0" fillId="49" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="61" numFmtId="0" fillId="49" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="63" numFmtId="0" fillId="50" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="62" numFmtId="0" fillId="50" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="64" numFmtId="0" fillId="3" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="63" numFmtId="0" fillId="51" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="65" numFmtId="0" fillId="51" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="64" numFmtId="0" fillId="3" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="66" numFmtId="0" fillId="52" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="65" numFmtId="0" fillId="52" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="67" numFmtId="0" fillId="53" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="66" numFmtId="0" fillId="53" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="68" numFmtId="0" fillId="28" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="67" numFmtId="0" fillId="54" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="69" numFmtId="0" fillId="54" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="68" numFmtId="0" fillId="55" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="29" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="69" numFmtId="0" fillId="56" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="70" numFmtId="0" fillId="55" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="70" numFmtId="0" fillId="57" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="13" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="71" numFmtId="0" fillId="7" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>

--- a/includes/excels/archs.txt.xlsx
+++ b/includes/excels/archs.txt.xlsx
@@ -928,7 +928,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="72">
+  <fonts count="68">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -953,11 +953,20 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff969697"/>
+      <color rgb="FFffffffffffc34c8f"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff74ff75"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
@@ -971,7 +980,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff0f0701"/>
+      <color rgb="FFffffffffffbe961f"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -980,16 +989,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff1f0001"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff800100"/>
+      <color rgb="FFffffffffff05052e"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -997,15 +997,6 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffffd174a9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
       <sz val="11"/>
       <color rgb="FFffffffffffff0566"/>
       <name val="Calibri"/>
@@ -1016,7 +1007,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff0a0a0b"/>
+      <color rgb="FFffffffffff050f1a"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1025,7 +1016,16 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff0a0a24"/>
+      <color rgb="FFffffffffff8f7f70"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff274028"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1034,16 +1034,16 @@
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFffffffffffd0b0b1"/>
+      <color rgb="FFffffffffff9471dd"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
+      <b val="0"/>
+      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffffd0b0b1"/>
+      <color rgb="FFffffffffff38ea7b"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1051,6 +1051,51 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff000001"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff003f35"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff00ff01"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff95a533"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff00ff01"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FFffffffffffe6e690"/>
       <name val="Calibri"/>
@@ -1068,54 +1113,45 @@
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff000020"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff887767"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff001b3c"/>
+      <color rgb="FFffffffffff437071"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
-      <u val="single"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffffff4001"/>
+      <color rgb="FFffffffffff800100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff166986"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffffff01"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff849712"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff050f1a"/>
+      <color rgb="FFffffffffff6c8f25"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1133,34 +1169,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff7f7f80"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff0f0001"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff80002c"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffffffff01"/>
+      <color rgb="FFffffffffff000020"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1169,21 +1178,21 @@
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff783115"/>
+      <color rgb="FFffffffffff8f7f70"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffe6e690"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="0"/>
       <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff117d12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
@@ -1194,9 +1203,27 @@
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffffff75"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff2d96e2"/>
+      <color rgb="FFffffffffff225f23"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff993256"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1205,70 +1232,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff45aa2d"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff1f0001"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff00102b"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff8f7f70"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff3f3f40"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff007400"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff000001"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff565657"/>
+      <color rgb="FFffffffffff52271a"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1281,12 +1245,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
-      <u val="none"/>
+      <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFffffffffffb4ff7e"/>
+      <color rgb="FFffffffffff005f86"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1295,16 +1259,34 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff5200d1"/>
+      <color rgb="FFffffffffff327ac1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff010000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFffffffffffff0081"/>
+      <color rgb="FFffffffffff005b00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffff0001"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1313,7 +1295,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff000020"/>
+      <color rgb="FFffffffffff74baed"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1322,70 +1304,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff704371"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff99cc67"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff7f7f80"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff23ebc4"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffffffff01"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffffffff01"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff001b3c"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff969697"/>
+      <color rgb="FFffffffffff020a1a"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1394,34 +1313,7 @@
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff4dddde"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff783106"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff8f7f70"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffffff312f"/>
+      <color rgb="FFffffffffff99cc67"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1439,11 +1331,56 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffffd0b0b1"/>
+      <color rgb="FFffffffffff424895"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff0f0701"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff003f35"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff003f35"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff849712"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff274028"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -1453,20 +1390,38 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="1"/>
+      <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffffc34c8f"/>
+      <color rgb="FFffffffffff4f1f1a"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="0"/>
-      <i val="1"/>
+      <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff783106"/>
+      <color rgb="FFffffffffff0f1974"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff887767"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff002547"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1475,34 +1430,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff75d41e"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff111756"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff6c8f25"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFffffffffff191906"/>
+      <color rgb="FFffffffffff009cb9"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1515,12 +1443,30 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff501112"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
-      <u val="single"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff255ae0"/>
+      <color rgb="FFffffffffff45aa2d"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1529,7 +1475,7 @@
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff5fadd3"/>
+      <color rgb="FFffffffffff3f3f40"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1538,16 +1484,25 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff225f23"/>
+      <color rgb="FFffffffffff000f0b"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff2c2c2d"/>
+      <color rgb="FFffffffffffe16f01"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffff45aa2d"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1556,7 +1511,25 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff005b00"/>
+      <color rgb="FFffffffffff002153"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffff0100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffffffffbf1f30"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1565,20 +1538,11 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffffffff9471dd"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
       <color rgb="FFffffffffffd174a9"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1596,8 +1560,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF696969&#13;&#10;"/>
-        <bgColor rgb="FF696969&#13;&#10;"/>
+        <fgColor rgb="FF3CB371&#13;&#10;"/>
+        <bgColor rgb="FF3CB371&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B008B&#13;&#10;"/>
+        <bgColor rgb="FF8B008B&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1608,20 +1578,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0FFFF&#13;&#10;"/>
-        <bgColor rgb="FFE0FFFF&#13;&#10;"/>
+        <fgColor rgb="FF4169E1&#13;&#10;"/>
+        <bgColor rgb="FF4169E1&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFF00&#13;&#10;"/>
-        <bgColor rgb="FF7FFF00&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2E8B57&#13;&#10;"/>
-        <bgColor rgb="FF2E8B57&#13;&#10;"/>
+        <fgColor rgb="FFFAFAD2&#13;&#10;"/>
+        <bgColor rgb="FFFAFAD2&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1632,20 +1596,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5&#13;&#10;"/>
-        <bgColor rgb="FFF5F5F5&#13;&#10;"/>
+        <fgColor rgb="FFFAF0E6&#13;&#10;"/>
+        <bgColor rgb="FFFAF0E6&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5DC&#13;&#10;"/>
-        <bgColor rgb="FFF5F5DC&#13;&#10;"/>
+        <fgColor rgb="FF708090&#13;&#10;"/>
+        <bgColor rgb="FF708090&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2F4F4F&#13;&#10;"/>
-        <bgColor rgb="FF2F4F4F&#13;&#10;"/>
+        <fgColor rgb="FFD8BFD8&#13;&#10;"/>
+        <bgColor rgb="FFD8BFD8&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B8E23&#13;&#10;"/>
+        <bgColor rgb="FF6B8E23&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC71585&#13;&#10;"/>
+        <bgColor rgb="FFC71585&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF&#13;&#10;"/>
+        <bgColor rgb="FFFFFFFF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB&#13;&#10;"/>
+        <bgColor rgb="FFFFC0CB&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF&#13;&#10;"/>
+        <bgColor rgb="FFFF00FF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A5ACD&#13;&#10;"/>
+        <bgColor rgb="FF6A5ACD&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1662,8 +1662,158 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBC8F8F&#13;&#10;"/>
+        <bgColor rgb="FFBC8F8F&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FFF00&#13;&#10;"/>
+        <bgColor rgb="FF7FFF00&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9967A&#13;&#10;"/>
+        <bgColor rgb="FFE9967A&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF&#13;&#10;"/>
+        <bgColor rgb="FF0000FF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9370DB&#13;&#10;"/>
+        <bgColor rgb="FF9370DB&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700&#13;&#10;"/>
+        <bgColor rgb="FFFFD700&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFE0&#13;&#10;"/>
         <bgColor rgb="FFFFFFE0&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB6C1&#13;&#10;"/>
+        <bgColor rgb="FFFFB6C1&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00008B&#13;&#10;"/>
+        <bgColor rgb="FF00008B&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA0DD&#13;&#10;"/>
+        <bgColor rgb="FFDDA0DD&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CDAA&#13;&#10;"/>
+        <bgColor rgb="FF66CDAA&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6&#13;&#10;"/>
+        <bgColor rgb="FFADD8E6&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57&#13;&#10;"/>
+        <bgColor rgb="FF2E8B57&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA07A&#13;&#10;"/>
+        <bgColor rgb="FFFFA07A&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD853F&#13;&#10;"/>
+        <bgColor rgb="FFCD853F&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000&#13;&#10;"/>
+        <bgColor rgb="FFFF0000&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500&#13;&#10;"/>
+        <bgColor rgb="FFFFA500&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF&#13;&#10;"/>
+        <bgColor rgb="FF00FFFF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B4513&#13;&#10;"/>
+        <bgColor rgb="FF8B4513&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF5E6&#13;&#10;"/>
+        <bgColor rgb="FFFDF5E6&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF663399&#13;&#10;"/>
+        <bgColor rgb="FF663399&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDB76B&#13;&#10;"/>
+        <bgColor rgb="FFBDB76B&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7B68EE&#13;&#10;"/>
+        <bgColor rgb="FF7B68EE&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4E1&#13;&#10;"/>
+        <bgColor rgb="FFFFE4E1&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0E0E6&#13;&#10;"/>
+        <bgColor rgb="FFB0E0E6&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0E68C&#13;&#10;"/>
+        <bgColor rgb="FFF0E68C&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1674,80 +1824,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4C4&#13;&#10;"/>
-        <bgColor rgb="FFFFE4C4&#13;&#10;"/>
+        <fgColor rgb="FFFFDAB9&#13;&#10;"/>
+        <bgColor rgb="FFFFDAB9&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00BFFF&#13;&#10;"/>
-        <bgColor rgb="FF00BFFF&#13;&#10;"/>
+        <fgColor rgb="FFFF6347&#13;&#10;"/>
+        <bgColor rgb="FFFF6347&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7B68EE&#13;&#10;"/>
-        <bgColor rgb="FF7B68EE&#13;&#10;"/>
+        <fgColor rgb="FF696969&#13;&#10;"/>
+        <bgColor rgb="FF696969&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF0E6&#13;&#10;"/>
-        <bgColor rgb="FFFAF0E6&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD700&#13;&#10;"/>
-        <bgColor rgb="FFFFD700&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080&#13;&#10;"/>
-        <bgColor rgb="FF808080&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF&#13;&#10;"/>
-        <bgColor rgb="FFF0FFFF&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4&#13;&#10;"/>
-        <bgColor rgb="FF7FFFD4&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF&#13;&#10;"/>
-        <bgColor rgb="FF0000FF&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB&#13;&#10;"/>
-        <bgColor rgb="FF87CEEB&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEE82EE&#13;&#10;"/>
-        <bgColor rgb="FFEE82EE&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB6C1&#13;&#10;"/>
-        <bgColor rgb="FFFFB6C1&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E&#13;&#10;"/>
-        <bgColor rgb="FFD2691E&#13;&#10;"/>
+        <fgColor rgb="FFAFEEEE&#13;&#10;"/>
+        <bgColor rgb="FFAFEEEE&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1758,14 +1854,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEFD5&#13;&#10;"/>
-        <bgColor rgb="FFFFEFD5&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF708090&#13;&#10;"/>
-        <bgColor rgb="FF708090&#13;&#10;"/>
+        <fgColor rgb="FF000000&#13;&#10;"/>
+        <bgColor rgb="FF000000&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1776,652 +1866,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8C00&#13;&#10;"/>
-        <bgColor rgb="FFFF8C00&#13;&#10;"/>
+        <fgColor rgb="FFFFF0F5&#13;&#10;"/>
+        <bgColor rgb="FFFFF0F5&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF&#13;&#10;"/>
-        <bgColor rgb="FFFFFFFF&#13;&#10;"/>
+        <fgColor rgb="FF1E90FF&#13;&#10;"/>
+        <bgColor rgb="FF1E90FF&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9A9A9&#13;&#10;"/>
-        <bgColor rgb="FFA9A9A9&#13;&#10;"/>
+        <fgColor rgb="FFFFDEAD&#13;&#10;"/>
+        <bgColor rgb="FFFFDEAD&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4B0082&#13;&#10;"/>
-        <bgColor rgb="FF4B0082&#13;&#10;"/>
+        <fgColor rgb="FF00FF00&#13;&#10;"/>
+        <bgColor rgb="FF00FF00&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADFF2F&#13;&#10;"/>
-        <bgColor rgb="FFADFF2F&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF7F&#13;&#10;"/>
-        <bgColor rgb="FF00FF7F&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8F&#13;&#10;"/>
-        <bgColor rgb="FF8FBC8F&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF663399&#13;&#10;"/>
-        <bgColor rgb="FF663399&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDC143C&#13;&#10;"/>
-        <bgColor rgb="FFDC143C&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB22222&#13;&#10;"/>
-        <bgColor rgb="FFB22222&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEFA&#13;&#10;"/>
-        <bgColor rgb="FF87CEFA&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CED1&#13;&#10;"/>
-        <bgColor rgb="FF00CED1&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8B4513&#13;&#10;"/>
-        <bgColor rgb="FF8B4513&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4E1&#13;&#10;"/>
-        <bgColor rgb="FFFFE4E1&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3CB371&#13;&#10;"/>
-        <bgColor rgb="FF3CB371&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8A2BE2&#13;&#10;"/>
-        <bgColor rgb="FF8A2BE2&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEE8AA&#13;&#10;"/>
-        <bgColor rgb="FFEEE8AA&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9370DB&#13;&#10;"/>
-        <bgColor rgb="FF9370DB&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6FA&#13;&#10;"/>
-        <bgColor rgb="FFE6E6FA&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAA520&#13;&#10;"/>
-        <bgColor rgb="FFDAA520&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA0522D&#13;&#10;"/>
-        <bgColor rgb="FFA0522D&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDA0DD&#13;&#10;"/>
-        <bgColor rgb="FFDDA0DD&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3&#13;&#10;"/>
-        <bgColor rgb="FFD3D3D3&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500&#13;&#10;"/>
-        <bgColor rgb="FFFFA500&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6B8E23&#13;&#10;"/>
-        <bgColor rgb="FF6B8E23&#13;&#10;"/>
+        <fgColor rgb="FF40E0D0&#13;&#10;"/>
+        <bgColor rgb="FF40E0D0&#13;&#10;"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="77">
     <border/>
     <border>
-      <left style="double">
-        <color rgb="FF00FF7F&#13;&#10;"/>
+      <left style="hair">
+        <color rgb="FFD3D3D3&#13;&#10;"/>
       </left>
-      <right style="double">
-        <color rgb="FF00FF7F&#13;&#10;"/>
+      <right style="hair">
+        <color rgb="FFD3D3D3&#13;&#10;"/>
       </right>
-      <top style="double">
-        <color rgb="FF00FF7F&#13;&#10;"/>
+      <top style="hair">
+        <color rgb="FFD3D3D3&#13;&#10;"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF00FF7F&#13;&#10;"/>
+      <bottom style="hair">
+        <color rgb="FFD3D3D3&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFA52A2A&#13;&#10;"/>
+        <color rgb="FF6A5ACD&#13;&#10;"/>
       </left>
       <right style="medium">
-        <color rgb="FFA52A2A&#13;&#10;"/>
+        <color rgb="FF6A5ACD&#13;&#10;"/>
       </right>
       <top style="medium">
-        <color rgb="FFA52A2A&#13;&#10;"/>
+        <color rgb="FF6A5ACD&#13;&#10;"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFA52A2A&#13;&#10;"/>
+        <color rgb="FF6A5ACD&#13;&#10;"/>
       </bottom>
     </border>
     <border/>
     <border>
-      <left style="slantDashDot">
-        <color rgb="FFFFC0CB&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFFFC0CB&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFFFC0CB&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFFFC0CB&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border>
-      <left style="thick">
-        <color rgb="FF708090&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF708090&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF708090&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF708090&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF778899&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF778899&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF778899&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF778899&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF8B0000&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF8B0000&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF8B0000&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF8B0000&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF5DEB3&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF5DEB3&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF5DEB3&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF5DEB3&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFFFFAFA&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFFFFAFA&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFFFFAFA&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFFFFAFA&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFFFF00&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFFFF00&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFFFF00&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFFFF00&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FF808000&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FF808000&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FF808000&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF808000&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFFFFFE0&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFFFFFE0&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFFFFFE0&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFFFFFE0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF6A5ACD&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FF6A5ACD&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FF6A5ACD&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF6A5ACD&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF483D8B&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF483D8B&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF483D8B&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF483D8B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFE9967A&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFE9967A&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFE9967A&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFE9967A&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF00BFFF&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF00BFFF&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF00BFFF&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF00BFFF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
       <left style="hair">
-        <color rgb="FF9ACD32"/>
+        <color rgb="FFFFE4E1&#13;&#10;"/>
       </left>
       <right style="hair">
-        <color rgb="FF9ACD32"/>
+        <color rgb="FFFFE4E1&#13;&#10;"/>
       </right>
       <top style="hair">
-        <color rgb="FF9ACD32"/>
+        <color rgb="FFFFE4E1&#13;&#10;"/>
       </top>
       <bottom style="hair">
-        <color rgb="FF9ACD32"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FF191970&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FF191970&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FF191970&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF191970&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FF708090&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FF708090&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FF708090&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF708090&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF87CEFA&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FF87CEFA&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FF87CEFA&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF87CEFA&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFF4500&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF4500&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFF4500&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFF4500&#13;&#10;"/>
+        <color rgb="FFFFE4E1&#13;&#10;"/>
       </bottom>
     </border>
     <border/>
     <border>
       <left style="medium">
-        <color rgb="FFFFE4B5&#13;&#10;"/>
+        <color rgb="FFEEE8AA&#13;&#10;"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFE4B5&#13;&#10;"/>
+        <color rgb="FFEEE8AA&#13;&#10;"/>
       </right>
       <top style="medium">
-        <color rgb="FFFFE4B5&#13;&#10;"/>
+        <color rgb="FFEEE8AA&#13;&#10;"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFFFE4B5&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border>
-      <left style="hair">
-        <color rgb="FF7FFF00&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF7FFF00&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF7FFF00&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF7FFF00&#13;&#10;"/>
+        <color rgb="FFEEE8AA&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="mediumDashed">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FFF08080&#13;&#10;"/>
       </left>
       <right style="mediumDashed">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FFF08080&#13;&#10;"/>
       </right>
       <top style="mediumDashed">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FFF08080&#13;&#10;"/>
       </top>
       <bottom style="mediumDashed">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FFF08080&#13;&#10;"/>
       </bottom>
     </border>
     <border>
-      <left style="mediumDashed">
-        <color rgb="FF9932CC&#13;&#10;"/>
+      <left style="hair">
+        <color rgb="FFFF4500&#13;&#10;"/>
       </left>
-      <right style="mediumDashed">
-        <color rgb="FF9932CC&#13;&#10;"/>
+      <right style="hair">
+        <color rgb="FFFF4500&#13;&#10;"/>
       </right>
-      <top style="mediumDashed">
-        <color rgb="FF9932CC&#13;&#10;"/>
+      <top style="hair">
+        <color rgb="FFFF4500&#13;&#10;"/>
       </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF9932CC&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF8B008B&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF8B008B&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF8B008B&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF8B008B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFD8BFD8&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFD8BFD8&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFD8BFD8&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFD8BFD8&#13;&#10;"/>
+      <bottom style="hair">
+        <color rgb="FFFF4500&#13;&#10;"/>
       </bottom>
     </border>
     <border>
@@ -2439,115 +1998,355 @@
       </bottom>
     </border>
     <border>
-      <left style="slantDashDot">
+      <left style="medium">
+        <color rgb="FF696969&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF696969&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF696969&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF696969&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="thick">
+        <color rgb="FFB0C4DE&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFB0C4DE&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFB0C4DE&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB0C4DE&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF20B2AA&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF20B2AA&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF20B2AA&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF20B2AA&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF8B008B&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF8B008B&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF8B008B&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF8B008B&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF8C00&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF8C00&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF8C00&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF8C00&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF8C00&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF8C00&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF8C00&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8C00&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00FF7F&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00FF7F&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00FF7F&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00FF7F&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF0FFF0&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFF0FFF0&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF0FFF0&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF0FFF0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF66CDAA&#13;&#10;"/>
       </left>
-      <right style="slantDashDot">
+      <right style="medium">
         <color rgb="FF66CDAA&#13;&#10;"/>
       </right>
-      <top style="slantDashDot">
+      <top style="medium">
         <color rgb="FF66CDAA&#13;&#10;"/>
       </top>
-      <bottom style="slantDashDot">
+      <bottom style="medium">
         <color rgb="FF66CDAA&#13;&#10;"/>
       </bottom>
     </border>
     <border>
+      <left style="hair">
+        <color rgb="FFDC143C&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFDC143C&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFDC143C&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFDC143C&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
       <left style="medium">
-        <color rgb="FFD2B48C&#13;&#10;"/>
+        <color rgb="FFFFA07A&#13;&#10;"/>
       </left>
       <right style="medium">
-        <color rgb="FFD2B48C&#13;&#10;"/>
+        <color rgb="FFFFA07A&#13;&#10;"/>
       </right>
       <top style="medium">
-        <color rgb="FFD2B48C&#13;&#10;"/>
+        <color rgb="FFFFA07A&#13;&#10;"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFD2B48C&#13;&#10;"/>
+        <color rgb="FFFFA07A&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFFF69B4&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFFF69B4&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFFF69B4&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFFF69B4&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFB0C4DE&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFB0C4DE&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFB0C4DE&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFB0C4DE&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FFFFFFE0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FFFF1493&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFFF1493&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFFF1493&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFFF1493&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF228B22&#13;&#10;"/>
+        <color rgb="FFD3D3D3&#13;&#10;"/>
       </left>
       <right style="medium">
-        <color rgb="FF228B22&#13;&#10;"/>
+        <color rgb="FFD3D3D3&#13;&#10;"/>
       </right>
       <top style="medium">
-        <color rgb="FF228B22&#13;&#10;"/>
+        <color rgb="FFD3D3D3&#13;&#10;"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF228B22&#13;&#10;"/>
+        <color rgb="FFD3D3D3&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="double">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
+        <color rgb="FFFFB6C1&#13;&#10;"/>
       </left>
       <right style="double">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
+        <color rgb="FFFFB6C1&#13;&#10;"/>
       </right>
       <top style="double">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
+        <color rgb="FFFFB6C1&#13;&#10;"/>
       </top>
       <bottom style="double">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFF4A460&#13;&#10;"/>
+        <color rgb="FFFFB6C1&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="hair">
-        <color rgb="FF7B68EE&#13;&#10;"/>
+        <color rgb="FF008B8B&#13;&#10;"/>
       </left>
       <right style="hair">
-        <color rgb="FF7B68EE&#13;&#10;"/>
+        <color rgb="FF008B8B&#13;&#10;"/>
       </right>
       <top style="hair">
-        <color rgb="FF7B68EE&#13;&#10;"/>
+        <color rgb="FF008B8B&#13;&#10;"/>
       </top>
       <bottom style="hair">
-        <color rgb="FF7B68EE&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFF4A460&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
+        <color rgb="FF008B8B&#13;&#10;"/>
       </bottom>
     </border>
     <border>
@@ -2566,282 +2365,214 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF008B8B&#13;&#10;"/>
+        <color rgb="FF1E90FF&#13;&#10;"/>
       </left>
       <right style="medium">
-        <color rgb="FF008B8B&#13;&#10;"/>
+        <color rgb="FF1E90FF&#13;&#10;"/>
       </right>
       <top style="medium">
-        <color rgb="FF008B8B&#13;&#10;"/>
+        <color rgb="FF1E90FF&#13;&#10;"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF008B8B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FFFAFAD2&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FFFAFAD2&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FFFAFAD2&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FFFAFAD2&#13;&#10;"/>
+        <color rgb="FF1E90FF&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFFFFE0&#13;&#10;"/>
+        <color rgb="FFFFF5EE&#13;&#10;"/>
       </left>
       <right style="thick">
-        <color rgb="FFFFFFE0&#13;&#10;"/>
+        <color rgb="FFFFF5EE&#13;&#10;"/>
       </right>
       <top style="thick">
-        <color rgb="FFFFFFE0&#13;&#10;"/>
+        <color rgb="FFFFF5EE&#13;&#10;"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFFFFE0&#13;&#10;"/>
+        <color rgb="FFFFF5EE&#13;&#10;"/>
       </bottom>
     </border>
     <border>
-      <left style="dashDot">
-        <color rgb="FFFFDAB9&#13;&#10;"/>
+      <left style="mediumDashed">
+        <color rgb="FFFF8C00&#13;&#10;"/>
       </left>
-      <right style="dashDot">
-        <color rgb="FFFFDAB9&#13;&#10;"/>
+      <right style="mediumDashed">
+        <color rgb="FFFF8C00&#13;&#10;"/>
       </right>
-      <top style="dashDot">
-        <color rgb="FFFFDAB9&#13;&#10;"/>
+      <top style="mediumDashed">
+        <color rgb="FFFF8C00&#13;&#10;"/>
       </top>
-      <bottom style="dashDot">
-        <color rgb="FFFFDAB9&#13;&#10;"/>
+      <bottom style="mediumDashed">
+        <color rgb="FFFF8C00&#13;&#10;"/>
       </bottom>
     </border>
+    <border/>
+    <border/>
     <border>
       <left style="hair">
-        <color rgb="FFBC8F8F&#13;&#10;"/>
+        <color rgb="FF696969&#13;&#10;"/>
       </left>
       <right style="hair">
-        <color rgb="FFBC8F8F&#13;&#10;"/>
+        <color rgb="FF696969&#13;&#10;"/>
       </right>
       <top style="hair">
-        <color rgb="FFBC8F8F&#13;&#10;"/>
+        <color rgb="FF696969&#13;&#10;"/>
       </top>
       <bottom style="hair">
-        <color rgb="FFBC8F8F&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFDF5E6&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFDF5E6&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFDF5E6&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFDF5E6&#13;&#10;"/>
+        <color rgb="FF696969&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF4682B4&#13;&#10;"/>
+        <color rgb="FF808080&#13;&#10;"/>
       </left>
       <right style="thick">
-        <color rgb="FF4682B4&#13;&#10;"/>
+        <color rgb="FF808080&#13;&#10;"/>
       </right>
       <top style="thick">
-        <color rgb="FF4682B4&#13;&#10;"/>
+        <color rgb="FF808080&#13;&#10;"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF4169E1&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF4169E1&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF4169E1&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF4169E1&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFB0E0E6&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFB0E0E6&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFB0E0E6&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFB0E0E6&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FF2F4F4F&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FF2F4F4F&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FF2F4F4F&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FF2F4F4F&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF808080&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF808080&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF808080&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF808080&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="double">
-        <color rgb="FFD3D3D3&#13;&#10;"/>
+        <color rgb="FF708090&#13;&#10;"/>
       </left>
       <right style="double">
-        <color rgb="FFD3D3D3&#13;&#10;"/>
+        <color rgb="FF708090&#13;&#10;"/>
       </right>
       <top style="double">
-        <color rgb="FFD3D3D3&#13;&#10;"/>
+        <color rgb="FF708090&#13;&#10;"/>
       </top>
       <bottom style="double">
-        <color rgb="FFD3D3D3&#13;&#10;"/>
+        <color rgb="FF708090&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFFFFACD&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFFFFACD&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFFFFACD&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFFFFACD&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFAFEEEE&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFAFEEEE&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFAFEEEE&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFAFEEEE&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFFF0000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF808080&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF808080&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF808080&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF808080&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="mediumDashed">
-        <color rgb="FF000080&#13;&#10;"/>
+        <color rgb="FFCD5C5C&#13;&#10;"/>
       </left>
       <right style="mediumDashed">
-        <color rgb="FF000080&#13;&#10;"/>
+        <color rgb="FFCD5C5C&#13;&#10;"/>
       </right>
       <top style="mediumDashed">
-        <color rgb="FF000080&#13;&#10;"/>
+        <color rgb="FFCD5C5C&#13;&#10;"/>
       </top>
       <bottom style="mediumDashed">
-        <color rgb="FF000080&#13;&#10;"/>
+        <color rgb="FFCD5C5C&#13;&#10;"/>
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF6A5ACD&#13;&#10;"/>
+      <left style="thick">
+        <color rgb="FF008080&#13;&#10;"/>
       </left>
-      <right style="medium">
-        <color rgb="FF6A5ACD&#13;&#10;"/>
+      <right style="thick">
+        <color rgb="FF008080&#13;&#10;"/>
       </right>
-      <top style="medium">
-        <color rgb="FF6A5ACD&#13;&#10;"/>
+      <top style="thick">
+        <color rgb="FF008080&#13;&#10;"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF6A5ACD&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFDEB887&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFDEB887&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFDEB887&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFDEB887&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF66CDAA&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF66CDAA&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF66CDAA&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF66CDAA&#13;&#10;"/>
+      <bottom style="thick">
+        <color rgb="FF008080&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="slantDashDot">
-        <color rgb="FF32CD32&#13;&#10;"/>
+        <color rgb="FF20B2AA&#13;&#10;"/>
       </left>
       <right style="slantDashDot">
-        <color rgb="FF32CD32&#13;&#10;"/>
+        <color rgb="FF20B2AA&#13;&#10;"/>
       </right>
       <top style="slantDashDot">
-        <color rgb="FF32CD32&#13;&#10;"/>
+        <color rgb="FF20B2AA&#13;&#10;"/>
       </top>
       <bottom style="slantDashDot">
-        <color rgb="FF32CD32&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2F4F4F&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF2F4F4F&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF2F4F4F&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF2F4F4F&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
+        <color rgb="FF20B2AA&#13;&#10;"/>
       </bottom>
     </border>
     <border>
@@ -2858,7 +2589,300 @@
         <color rgb="FFFFF0F5&#13;&#10;"/>
       </bottom>
     </border>
-    <border/>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF7F50&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF7F50&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF7F50&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF7F50&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FF00FFFF&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FF00FFFF&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FF00FFFF&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FF00FFFF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFA52A2A&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFA52A2A&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFA52A2A&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFA52A2A&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFF8DC&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFF8DC&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFF8DC&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFF8DC&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFFFDAB9&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FFFFDAB9&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FFFFDAB9&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FFFFDAB9&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF87CEEB&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF87CEEB&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF87CEEB&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF87CEEB&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FFF8F8FF&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFF8F8FF&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFF8F8FF&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFF8F8FF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF4B0082&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF4B0082&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF4B0082&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF4B0082&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFDC143C&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFDC143C&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFDC143C&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFDC143C&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF00FFFF&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF00FFFF&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF00FFFF&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF00FFFF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFE6E6FA&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFE6E6FA&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFE6E6FA&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFE6E6FA&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF8B4513&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF8B4513&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF8B4513&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF8B4513&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF0FFFF&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFF0FFFF&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF0FFFF&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF0FFFF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFFFDEAD&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF8B0000&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF8B0000&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF8B0000&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF8B0000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF00FA9A&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF00FA9A&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF00FA9A&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF00FA9A&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF006400&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF006400&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF006400&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF006400&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF663399&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF663399&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF663399&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF663399&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF2E8B57&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF2E8B57&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF2E8B57&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF2E8B57&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF00CED1&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF00CED1&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF00CED1&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF00CED1&#13;&#10;"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2876,94 +2900,91 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="8" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="7" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="9" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="8" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="10" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="9" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="11" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="10" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="12" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="11" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="13" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="11" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="14" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="12" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="15" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="13" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="16" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="14" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="15" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="17" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="16" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="17" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="18" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="18" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="19" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="19" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="20" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="20" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="21" numFmtId="0" fillId="21" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="21" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="22" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="19" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="23" numFmtId="0" fillId="23" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="23" numFmtId="0" fillId="22" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="0" fillId="24" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="24" numFmtId="0" fillId="23" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="25" numFmtId="0" fillId="25" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="0" fillId="24" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="26" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="25" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="27" numFmtId="0" fillId="10" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="27" numFmtId="0" fillId="26" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="20" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="27" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="18" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="28" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="27" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="29" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="28" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="5" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="29" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="32" numFmtId="0" fillId="30" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2984,118 +3005,121 @@
     <xf xfId="0" fontId="37" numFmtId="0" fillId="35" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="7" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="33" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="36" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="36" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="37" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="9" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="41" numFmtId="0" fillId="38" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="37" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="14" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="38" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="43" numFmtId="0" fillId="39" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="41" numFmtId="0" fillId="39" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="40" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="6" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="19" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="40" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="21" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="43" numFmtId="0" fillId="38" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="41" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="46" numFmtId="0" fillId="41" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="5" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="47" numFmtId="0" fillId="24" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="46" numFmtId="0" fillId="15" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="48" numFmtId="0" fillId="24" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="47" numFmtId="0" fillId="15" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="49" numFmtId="0" fillId="16" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="48" numFmtId="0" fillId="42" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="50" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="49" numFmtId="0" fillId="11" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="51" numFmtId="0" fillId="42" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="50" numFmtId="0" fillId="43" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="52" numFmtId="0" fillId="43" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="38" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="32" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="28" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="13" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="53" numFmtId="0" fillId="31" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="51" numFmtId="0" fillId="44" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="54" numFmtId="0" fillId="44" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="0" fillId="35" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="55" numFmtId="0" fillId="45" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="52" numFmtId="0" fillId="45" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="56" numFmtId="0" fillId="11" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="53" numFmtId="0" fillId="46" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="57" numFmtId="0" fillId="46" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="54" numFmtId="0" fillId="47" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="58" numFmtId="0" fillId="47" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="55" numFmtId="0" fillId="48" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="59" numFmtId="0" fillId="43" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="56" numFmtId="0" fillId="49" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="60" numFmtId="0" fillId="48" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="26" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="61" numFmtId="0" fillId="49" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="57" numFmtId="0" fillId="50" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="62" numFmtId="0" fillId="50" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="58" numFmtId="0" fillId="51" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="63" numFmtId="0" fillId="51" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="5" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="64" numFmtId="0" fillId="3" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="59" numFmtId="0" fillId="52" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="65" numFmtId="0" fillId="52" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="60" numFmtId="0" fillId="53" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="66" numFmtId="0" fillId="53" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="61" numFmtId="0" fillId="54" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="67" numFmtId="0" fillId="54" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="62" numFmtId="0" fillId="55" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="68" numFmtId="0" fillId="55" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="63" numFmtId="0" fillId="51" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="69" numFmtId="0" fillId="56" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="64" numFmtId="0" fillId="56" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="70" numFmtId="0" fillId="57" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="65" numFmtId="0" fillId="57" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="71" numFmtId="0" fillId="7" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="66" numFmtId="0" fillId="58" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="67" numFmtId="0" fillId="32" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
